--- a/data/03029.xlsx
+++ b/data/03029.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,43 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>03029</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GPP</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
